--- a/src/test/resources/data/BookTicket.xlsx
+++ b/src/test/resources/data/BookTicket.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>from</t>
   </si>
@@ -48,7 +48,13 @@
     <t>Nagpur</t>
   </si>
   <si>
+    <t>TS_03</t>
+  </si>
+  <si>
     <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
   </si>
   <si>
     <t>Delhi</t>
@@ -72,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,7 +393,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,35 +436,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
